--- a/To Add.xlsx
+++ b/To Add.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://proserveit-my.sharepoint.com/personal/mbaskhairoun_linezero_com/Documents/Desktop/Upwork/SCOUTS Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC104868095C4B345ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0177484F-28A4-47EE-A937-513E98BF6F7B}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_F25DC773A252ABDACC104868095C4B345ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E28390D-42AA-4C87-993A-F9B2F4AC4301}"/>
   <bookViews>
-    <workbookView xWindow="27120" yWindow="1875" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="136">
   <si>
     <t>Cyril</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Joy</t>
   </si>
   <si>
-    <t>Naseef</t>
-  </si>
-  <si>
     <t>Karen</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Marc</t>
   </si>
   <si>
-    <t>Rizk</t>
-  </si>
-  <si>
     <t>Mark</t>
   </si>
   <si>
@@ -121,13 +115,331 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Ghaly</t>
+  </si>
+  <si>
+    <t>Ariana</t>
+  </si>
+  <si>
+    <t>Binyam</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Eskandar</t>
+  </si>
+  <si>
+    <t>Christiano</t>
+  </si>
+  <si>
+    <t>Gergis</t>
+  </si>
+  <si>
+    <t>Christos</t>
+  </si>
+  <si>
+    <t>Rassidakis</t>
+  </si>
+  <si>
+    <t>Mikhail</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Iskander</t>
+  </si>
+  <si>
+    <t>Eliana</t>
+  </si>
+  <si>
+    <t>Tadrus</t>
+  </si>
+  <si>
+    <t>Emmanuel</t>
+  </si>
+  <si>
+    <t>Moussa</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Ghabbour</t>
+  </si>
+  <si>
+    <t>Joelle</t>
+  </si>
+  <si>
+    <t>Ishak</t>
+  </si>
+  <si>
+    <t>Nasief</t>
+  </si>
+  <si>
+    <t>Salama</t>
+  </si>
+  <si>
+    <t>Justina</t>
+  </si>
+  <si>
+    <t>Kyrillos</t>
+  </si>
+  <si>
+    <t>Serguis</t>
+  </si>
+  <si>
+    <t>Lavina</t>
+  </si>
+  <si>
+    <t>Adib</t>
+  </si>
+  <si>
+    <t>Loreena</t>
+  </si>
+  <si>
+    <t>Bishay</t>
+  </si>
+  <si>
+    <t>Rizl</t>
+  </si>
+  <si>
+    <t>Marcellino</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Ayad</t>
+  </si>
+  <si>
+    <t>Malak</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>Betro</t>
+  </si>
+  <si>
+    <t>Mariel</t>
+  </si>
+  <si>
+    <t>Mercurius</t>
+  </si>
+  <si>
+    <t>Tawadroos</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Mossa</t>
+  </si>
+  <si>
+    <t>Ebeid</t>
+  </si>
+  <si>
+    <t>Yousef</t>
+  </si>
+  <si>
+    <t>Mira</t>
+  </si>
+  <si>
+    <t>Bebawy</t>
+  </si>
+  <si>
+    <t>Nathalie</t>
+  </si>
+  <si>
+    <t>Habashy</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Mousa</t>
+  </si>
+  <si>
+    <t>Petra</t>
+  </si>
+  <si>
+    <t>Ghali</t>
+  </si>
+  <si>
+    <t>Abdelmessieh</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Bishara</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Seif</t>
+  </si>
+  <si>
+    <t>Fadel</t>
+  </si>
+  <si>
+    <t>david.milad.adib@gmail.com</t>
+  </si>
+  <si>
+    <t>sara.debretsion@halton.ca</t>
+  </si>
+  <si>
+    <t>dalia_raouf107@hotmail.com</t>
+  </si>
+  <si>
+    <t>naguibshady@yahoo.com</t>
+  </si>
+  <si>
+    <t>erenysabry4@gmail.com</t>
+  </si>
+  <si>
+    <t>aguirguis@mkgimmigration.com</t>
+  </si>
+  <si>
+    <t>mero1283@hotmail.com</t>
+  </si>
+  <si>
+    <t>oody_rdh@hotmail.com</t>
+  </si>
+  <si>
+    <t>mariamdimitry.m@gmail.com</t>
+  </si>
+  <si>
+    <t>sarah.f.soliman@gmail.com</t>
+  </si>
+  <si>
+    <t>Md.Meriam@gmail.com</t>
+  </si>
+  <si>
+    <t>polinemossake@gmail.com</t>
+  </si>
+  <si>
+    <t>jlschresteen@yahoo.com</t>
+  </si>
+  <si>
+    <t>hanyishak@yahoo.com</t>
+  </si>
+  <si>
+    <t>maged.andraous@gmail.com</t>
+  </si>
+  <si>
+    <t>bonytella2@hotmail.com</t>
+  </si>
+  <si>
+    <t>shiryshaarawy@gmail.com</t>
+  </si>
+  <si>
+    <t>florence.saher@gmail.com</t>
+  </si>
+  <si>
+    <t>marian_naguib84@yahoo.com</t>
+  </si>
+  <si>
+    <t>amirakaldes@gmail.com</t>
+  </si>
+  <si>
+    <t>dona.gh@yahoo.com</t>
+  </si>
+  <si>
+    <t>febronia.yanni@gmail.com</t>
+  </si>
+  <si>
+    <t>maged.megale@yahoo.com</t>
+  </si>
+  <si>
+    <t>mariumfox@gmail.com</t>
+  </si>
+  <si>
+    <t>johnsamydaniel@gmail.com</t>
+  </si>
+  <si>
+    <t>mariankameel@hotmail.com</t>
+  </si>
+  <si>
+    <t>medhaty@hotmail.com</t>
+  </si>
+  <si>
+    <t>christine.tadros211@gmail.com</t>
+  </si>
+  <si>
+    <t>p_betro@hotmail.com</t>
+  </si>
+  <si>
+    <t>youssefwg@hotmail.com</t>
+  </si>
+  <si>
+    <t>eshak_mariam@yahoo.com</t>
+  </si>
+  <si>
+    <t>maryhoss98@hotmail.com</t>
+  </si>
+  <si>
+    <t>erinygerges902@gmail.com</t>
+  </si>
+  <si>
+    <t>ghada2021@hotmail.com</t>
+  </si>
+  <si>
+    <t>mervat.yacoub@yahoo.com</t>
+  </si>
+  <si>
+    <t>vbebawy@gmail.com</t>
+  </si>
+  <si>
+    <t>michael.habashy33@gmail.com</t>
+  </si>
+  <si>
+    <t>possyguirguis@gmail.com</t>
+  </si>
+  <si>
+    <t>nermeenashak@yahoo.com</t>
+  </si>
+  <si>
+    <t>raymonda.farid@gmail.com</t>
+  </si>
+  <si>
+    <t>samy.girgis.ap@gmail.com</t>
+  </si>
+  <si>
+    <t>mariannetadros@yahoo.ca</t>
+  </si>
+  <si>
+    <t>sarahmedhat9@hotmail.com</t>
+  </si>
+  <si>
+    <t>evettegadelrab@gmail.com</t>
+  </si>
+  <si>
+    <t>Mary.bishay@hotmail.com</t>
+  </si>
+  <si>
+    <t>h.farouk@hotmail.com</t>
+  </si>
+  <si>
+    <t>Parent Email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,16 +447,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,12 +457,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFF2F4F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -177,7 +487,67 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF8EAADB"/>
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -191,8 +561,8 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -200,25 +570,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,309 +877,1084 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4168712303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9052994200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4377768093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6475142904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="4">
+        <v>18114984856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4162208200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6477854628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4169102868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6479136063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3657784342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="4">
+        <v>6478917987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6476675512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6477798333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4167323245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="4">
+        <v>6476675512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="4">
+        <v>6476177560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2">
-        <v>6475505617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C18" s="1">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="4">
+        <v>12946050420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5799432332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5146382575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="4">
+        <v>6476177560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="4">
+        <v>6477870371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6472368858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2897727476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="4">
+        <v>6479494089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="4">
+        <v>6475701885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="4">
+        <v>6479138873</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="4">
+        <v>6473395177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="4">
+        <v>6477053433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="4">
+        <v>6479801602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="4">
+        <v>4164198467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4168754192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="4">
+        <v>6473395177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="4">
+        <v>6477053433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="4">
+        <v>6477874779</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3">
-        <v>6475505617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="C36" s="1">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="4">
+        <v>6476675512</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="4">
+        <v>6478671610</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="4">
+        <v>12951517148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="4">
+        <v>4166593746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="4">
+        <v>6479622406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="4">
+        <v>6476486992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4">
-        <v>6475505617</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="4">
+        <v>6476081860</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5">
-        <v>6475505617</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="4">
+        <v>4168209365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2894005603</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6">
-        <v>6475505617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="4">
+        <v>6472866921</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>6475505617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8">
-        <v>6475505617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9">
-        <v>6475505617</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10">
-        <v>6475505617</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11">
-        <v>6475505617</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12">
-        <v>6475505617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13">
-        <v>6475505617</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="4">
+        <v>6474056820</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14">
-        <v>6475505617</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="C47" s="1">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" s="4">
+        <v>5194000708</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="4">
+        <v>6473353336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15">
-        <v>6475505617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16">
-        <v>6475505617</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17">
-        <v>6475505617</v>
-      </c>
-    </row>
+      <c r="C49" s="1">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="4">
+        <v>6479941611</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="4">
+        <v>6477834487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="1">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="4">
+        <v>6477056611</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" s="4">
+        <v>6478671610</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="3">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="7">
+        <v>6478778946</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/To Add.xlsx
+++ b/To Add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://proserveit-my.sharepoint.com/personal/mbaskhairoun_linezero_com/Documents/Desktop/Upwork/sgsascouts.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="11_F25DC773A252ABDACC104868095C4B345ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54E13946-82E9-43C6-B04E-FE4D5032ED1D}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="11_F25DC773A252ABDACC104868095C4B345ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{421FF311-02A6-4843-9FFB-6BB790CD7F2B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Parent Name</t>
   </si>
   <si>
-    <t>Parent Phone</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t>Filata</t>
+  </si>
+  <si>
+    <t>parent phone</t>
   </si>
 </sst>
 </file>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,75 +793,75 @@
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="5">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="5">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="C4" s="5">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C5" s="5">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,67 +869,67 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C8" s="5">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -937,38 +937,38 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C11" s="5">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
@@ -977,78 +977,78 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="5">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="5">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C15" s="5">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C16" s="3">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1056,16 +1056,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1073,33 +1073,33 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C19" s="5">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1107,16 +1107,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1130,49 +1130,49 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="C23" s="5">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>1</v>
@@ -1181,27 +1181,27 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="5">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1209,16 +1209,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="5">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1226,72 +1226,72 @@
         <v>2</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="5">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="C28" s="5">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="C29" s="3">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="C30" s="5">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>5</v>
@@ -1300,27 +1300,27 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="C32" s="5">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1328,55 +1328,55 @@
         <v>4</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="5">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="C34" s="5">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="C35" s="11">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>10</v>
@@ -1385,66 +1385,66 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="C37" s="5">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="5">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="C39" s="5">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>8</v>
@@ -1453,49 +1453,49 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="11">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="C42" s="5">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>1</v>
@@ -1504,27 +1504,27 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="5">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1532,50 +1532,50 @@
         <v>0</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="5">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="C46" s="5">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="C47" s="5">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1583,16 +1583,16 @@
         <v>9</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" s="5">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1600,152 +1600,152 @@
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" s="3">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="3">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="C51" s="3">
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="C52" s="3">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C53" s="3">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54" s="3">
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="C55" s="3">
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C56" s="3">
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" s="3">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1753,33 +1753,33 @@
         <v>4</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" s="3">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="C59" s="3">
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
